--- a/Donor's Name.xlsx
+++ b/Donor's Name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhrubo/Desktop/Mandir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/rasid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4962BF7A-F6D5-184D-8393-0FD32113D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033ADFFD-0A93-C141-897C-1C9BD8DF722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{7190C234-1A87-7C43-AD5B-2E17B94C5CCC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="423">
   <si>
     <t>রনেন্দ্র নাথ চক্রবর্তী</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>bidit</t>
+  </si>
+  <si>
+    <t>donation_2024</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1425,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1754,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7C324-0677-0240-BBA9-132EBA280EBB}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1769,12 +1772,12 @@
     <col min="5" max="5" width="19.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="9"/>
+    <col min="8" max="9" width="18" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1799,11 +1802,14 @@
       <c r="H1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1828,11 +1834,12 @@
       <c r="H2" s="1">
         <v>3000</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1857,11 +1864,12 @@
       <c r="H3" s="1">
         <v>502</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1886,11 +1894,12 @@
       <c r="H4" s="1">
         <v>1500</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1915,11 +1924,12 @@
       <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1944,11 +1954,12 @@
       <c r="H6" s="1">
         <v>700</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1973,11 +1984,12 @@
       <c r="H7" s="1">
         <v>2000</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2002,11 +2014,12 @@
       <c r="H8" s="1">
         <v>1300</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2031,11 +2044,12 @@
       <c r="H9" s="1">
         <v>500</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2060,11 +2074,12 @@
       <c r="H10" s="1">
         <v>1000</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2089,11 +2104,12 @@
       <c r="H11" s="1">
         <v>1001</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2118,11 +2134,12 @@
       <c r="H12" s="1">
         <v>700</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2147,11 +2164,12 @@
       <c r="H13" s="1">
         <v>1000</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2176,11 +2194,12 @@
       <c r="H14" s="1">
         <v>600</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2205,11 +2224,12 @@
       <c r="H15" s="1">
         <v>400</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2234,11 +2254,12 @@
       <c r="H16" s="1">
         <v>700</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2263,11 +2284,12 @@
       <c r="H17" s="1">
         <v>400</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2290,11 +2312,12 @@
         <v>18</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2319,11 +2342,12 @@
       <c r="H19" s="1">
         <v>1000</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2348,11 +2372,12 @@
       <c r="H20" s="1">
         <v>1500</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2377,11 +2402,12 @@
       <c r="H21" s="1">
         <v>600</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2406,11 +2432,12 @@
       <c r="H22" s="1">
         <v>600</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2435,11 +2462,12 @@
       <c r="H23" s="1">
         <v>1000</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2464,11 +2492,12 @@
       <c r="H24" s="1">
         <v>500</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2493,11 +2522,12 @@
       <c r="H25" s="1">
         <v>1000</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2522,11 +2552,12 @@
       <c r="H26" s="1">
         <v>500</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2551,11 +2582,12 @@
       <c r="H27" s="1">
         <v>500</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2580,11 +2612,12 @@
       <c r="H28" s="1">
         <v>1000</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2609,11 +2642,12 @@
       <c r="H29" s="1">
         <v>1000</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2638,11 +2672,12 @@
       <c r="H30" s="1">
         <v>600</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2667,11 +2702,12 @@
       <c r="H31" s="1">
         <v>1500</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="1"/>
+      <c r="J31" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2696,11 +2732,12 @@
       <c r="H32" s="1">
         <v>1000</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="1"/>
+      <c r="J32" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2725,11 +2762,12 @@
       <c r="H33" s="1">
         <v>400</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2754,11 +2792,12 @@
       <c r="H34" s="1">
         <v>1500</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="1"/>
+      <c r="J34" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2783,11 +2822,12 @@
       <c r="H35" s="1">
         <v>1000</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2812,11 +2852,12 @@
       <c r="H36" s="1">
         <v>5000</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="1"/>
+      <c r="J36" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2839,11 +2880,12 @@
         <v>2000</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2868,11 +2910,12 @@
       <c r="H38" s="1">
         <v>600</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2897,11 +2940,12 @@
       <c r="H39" s="1">
         <v>1500</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="1"/>
+      <c r="J39" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2924,11 +2968,12 @@
         <v>18</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5"/>
+      <c r="J40" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2951,11 +2996,12 @@
         <v>18</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2980,11 +3026,12 @@
       <c r="H42" s="1">
         <v>600</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="1"/>
+      <c r="J42" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3009,11 +3056,12 @@
       <c r="H43" s="1">
         <v>2000</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="1"/>
+      <c r="J43" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3038,11 +3086,12 @@
       <c r="H44" s="1">
         <v>1000</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3067,11 +3116,12 @@
       <c r="H45" s="1">
         <v>300</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3096,11 +3146,12 @@
       <c r="H46" s="1">
         <v>500</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="1"/>
+      <c r="J46" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3125,11 +3176,12 @@
       <c r="H47" s="1">
         <v>100</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="1"/>
+      <c r="J47" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3154,11 +3206,12 @@
       <c r="H48" s="1">
         <v>2000</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="1"/>
+      <c r="J48" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3183,11 +3236,12 @@
       <c r="H49" s="1">
         <v>1000</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="1"/>
+      <c r="J49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3212,11 +3266,12 @@
       <c r="H50" s="1">
         <v>300</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="1"/>
+      <c r="J50" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3241,11 +3296,12 @@
       <c r="H51" s="1">
         <v>700</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="1"/>
+      <c r="J51" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3270,11 +3326,12 @@
       <c r="H52" s="1">
         <v>1500</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="1"/>
+      <c r="J52" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3299,11 +3356,12 @@
       <c r="H53" s="1">
         <v>1000</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="1"/>
+      <c r="J53" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3328,11 +3386,12 @@
       <c r="H54" s="1">
         <v>700</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="1"/>
+      <c r="J54" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3357,11 +3416,12 @@
       <c r="H55" s="1">
         <v>500</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3386,11 +3446,12 @@
       <c r="H56" s="1">
         <v>1500</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3415,11 +3476,12 @@
       <c r="H57" s="1">
         <v>500</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="1"/>
+      <c r="J57" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3444,11 +3506,12 @@
       <c r="H58" s="1">
         <v>600</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="1"/>
+      <c r="J58" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3473,11 +3536,12 @@
       <c r="H59" s="1">
         <v>500</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="1"/>
+      <c r="J59" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3502,11 +3566,12 @@
       <c r="H60" s="1">
         <v>1000</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="1"/>
+      <c r="J60" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3531,11 +3596,12 @@
       <c r="H61" s="1">
         <v>1100</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="1"/>
+      <c r="J61" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3560,11 +3626,12 @@
       <c r="H62" s="1">
         <v>300</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="1"/>
+      <c r="J62" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3589,11 +3656,12 @@
       <c r="H63" s="1">
         <v>1000</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="1"/>
+      <c r="J63" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3618,11 +3686,12 @@
       <c r="H64" s="1">
         <v>300</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3647,11 +3716,12 @@
       <c r="H65" s="1">
         <v>350</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="1"/>
+      <c r="J65" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3676,11 +3746,12 @@
       <c r="H66" s="1">
         <v>500</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="1"/>
+      <c r="J66" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3705,11 +3776,12 @@
       <c r="H67" s="1">
         <v>1200</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="1"/>
+      <c r="J67" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3734,11 +3806,12 @@
       <c r="H68" s="1">
         <v>500</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="1"/>
+      <c r="J68" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3761,11 +3834,12 @@
         <v>18</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5"/>
+      <c r="J69" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3788,11 +3862,12 @@
         <v>500</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="5"/>
+      <c r="J70" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3817,11 +3892,12 @@
       <c r="H71" s="1">
         <v>800</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="1"/>
+      <c r="J71" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3846,11 +3922,12 @@
       <c r="H72" s="13">
         <v>305</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="13"/>
+      <c r="J72" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3875,11 +3952,12 @@
       <c r="H73" s="13">
         <v>200</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="13"/>
+      <c r="J73" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3904,11 +3982,12 @@
       <c r="H74" s="13">
         <v>300</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="13"/>
+      <c r="J74" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3933,11 +4012,12 @@
       <c r="H75" s="13">
         <v>500</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="13"/>
+      <c r="J75" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3962,11 +4042,12 @@
       <c r="H76" s="13">
         <v>500</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="13"/>
+      <c r="J76" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3991,11 +4072,12 @@
       <c r="H77" s="13">
         <v>302</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="13"/>
+      <c r="J77" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4020,11 +4102,12 @@
       <c r="H78" s="13">
         <v>1000</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="13"/>
+      <c r="J78" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4049,11 +4132,12 @@
       <c r="H79" s="13">
         <v>1000</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="13"/>
+      <c r="J79" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4078,11 +4162,12 @@
       <c r="H80" s="13">
         <v>1300</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="13"/>
+      <c r="J80" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4107,11 +4192,12 @@
       <c r="H81" s="13">
         <v>1000</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="13"/>
+      <c r="J81" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4136,11 +4222,12 @@
       <c r="H82" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="13"/>
+      <c r="J82" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4165,11 +4252,12 @@
       <c r="H83" s="13">
         <v>260</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="13"/>
+      <c r="J83" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4194,11 +4282,12 @@
       <c r="H84" s="13">
         <v>1700</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="13"/>
+      <c r="J84" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4223,11 +4312,12 @@
       <c r="H85" s="13">
         <v>2000</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="13"/>
+      <c r="J85" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4252,11 +4342,12 @@
       <c r="H86" s="13">
         <v>1500</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="13"/>
+      <c r="J86" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4281,11 +4372,12 @@
       <c r="H87" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="13"/>
+      <c r="J87" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4310,11 +4402,12 @@
       <c r="H88" s="13">
         <v>200</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="13"/>
+      <c r="J88" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4339,11 +4432,12 @@
       <c r="H89" s="13">
         <v>500</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="13"/>
+      <c r="J89" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4368,11 +4462,12 @@
       <c r="H90" s="13">
         <v>1700</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="13"/>
+      <c r="J90" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4397,11 +4492,12 @@
       <c r="H91" s="13">
         <v>500</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="13"/>
+      <c r="J91" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4424,11 +4520,12 @@
         <v>500</v>
       </c>
       <c r="H92" s="13"/>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="13"/>
+      <c r="J92" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4453,11 +4550,12 @@
       <c r="H93" s="13">
         <v>1600</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="13"/>
+      <c r="J93" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4482,11 +4580,12 @@
       <c r="H94" s="13">
         <v>201</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="13"/>
+      <c r="J94" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4511,11 +4610,12 @@
       <c r="H95" s="13">
         <v>200</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="13"/>
+      <c r="J95" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4540,11 +4640,12 @@
       <c r="H96" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="13"/>
+      <c r="J96" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4569,11 +4670,12 @@
       <c r="H97" s="13">
         <v>200</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="13"/>
+      <c r="J97" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4598,11 +4700,12 @@
       <c r="H98" s="13">
         <v>500</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="13"/>
+      <c r="J98" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4627,11 +4730,12 @@
       <c r="H99" s="13">
         <v>550</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="13"/>
+      <c r="J99" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4656,11 +4760,12 @@
       <c r="H100" s="13">
         <v>500</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="13"/>
+      <c r="J100" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4685,11 +4790,12 @@
       <c r="H101" s="13">
         <v>200</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="13"/>
+      <c r="J101" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4714,11 +4820,12 @@
       <c r="H102" s="13">
         <v>1500</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="13"/>
+      <c r="J102" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4743,11 +4850,12 @@
       <c r="H103" s="13">
         <v>500</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" s="13"/>
+      <c r="J103" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4772,11 +4880,12 @@
       <c r="H104" s="13">
         <v>1500</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="13"/>
+      <c r="J104" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4801,11 +4910,12 @@
       <c r="H105" s="13">
         <v>150</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I105" s="13"/>
+      <c r="J105" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4830,11 +4940,12 @@
       <c r="H106" s="13">
         <v>1000</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I106" s="13"/>
+      <c r="J106" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4859,11 +4970,12 @@
       <c r="H107" s="13">
         <v>400</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I107" s="13"/>
+      <c r="J107" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4888,11 +5000,12 @@
       <c r="H108" s="13">
         <v>400</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I108" s="13"/>
+      <c r="J108" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4917,11 +5030,12 @@
       <c r="H109" s="13">
         <v>1000</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" s="13"/>
+      <c r="J109" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4946,11 +5060,12 @@
       <c r="H110" s="13">
         <v>310</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="I110" s="13"/>
+      <c r="J110" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4975,11 +5090,12 @@
       <c r="H111" s="13">
         <v>500</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I111" s="13"/>
+      <c r="J111" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5004,11 +5120,12 @@
       <c r="H112" s="13">
         <v>600</v>
       </c>
-      <c r="I112" s="6" t="s">
+      <c r="I112" s="13"/>
+      <c r="J112" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5033,11 +5150,12 @@
       <c r="H113" s="13">
         <v>500</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I113" s="13"/>
+      <c r="J113" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5062,11 +5180,12 @@
       <c r="H114" s="13">
         <v>300</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="I114" s="13"/>
+      <c r="J114" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5089,11 +5208,12 @@
         <v>201</v>
       </c>
       <c r="H115" s="13"/>
-      <c r="I115" s="6" t="s">
+      <c r="I115" s="13"/>
+      <c r="J115" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5118,11 +5238,12 @@
       <c r="H116" s="13">
         <v>300</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I116" s="13"/>
+      <c r="J116" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5147,11 +5268,12 @@
       <c r="H117" s="13">
         <v>300</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" s="13"/>
+      <c r="J117" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5174,11 +5296,12 @@
         <v>300</v>
       </c>
       <c r="H118" s="13"/>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="13"/>
+      <c r="J118" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5203,11 +5326,12 @@
       <c r="H119" s="13">
         <v>300</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="13"/>
+      <c r="J119" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5232,11 +5356,12 @@
       <c r="H120" s="13">
         <v>250</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" s="13"/>
+      <c r="J120" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5261,11 +5386,12 @@
       <c r="H121" s="13">
         <v>500</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" s="13"/>
+      <c r="J121" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5290,11 +5416,12 @@
       <c r="H122" s="13">
         <v>200</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="13"/>
+      <c r="J122" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5319,11 +5446,12 @@
       <c r="H123" s="13">
         <v>500</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="I123" s="13"/>
+      <c r="J123" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5348,11 +5476,12 @@
       <c r="H124" s="13">
         <v>300</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="13"/>
+      <c r="J124" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5375,11 +5504,12 @@
         <v>300</v>
       </c>
       <c r="H125" s="13"/>
-      <c r="I125" s="6" t="s">
+      <c r="I125" s="13"/>
+      <c r="J125" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5404,11 +5534,12 @@
       <c r="H126" s="13">
         <v>500</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="13"/>
+      <c r="J126" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5433,11 +5564,12 @@
       <c r="H127" s="13">
         <v>700</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="I127" s="13"/>
+      <c r="J127" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5462,11 +5594,12 @@
       <c r="H128" s="13">
         <v>500</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I128" s="13"/>
+      <c r="J128" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5489,11 +5622,12 @@
         <v>18</v>
       </c>
       <c r="H129" s="13"/>
-      <c r="I129" s="6" t="s">
+      <c r="I129" s="13"/>
+      <c r="J129" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5516,11 +5650,12 @@
         <v>300</v>
       </c>
       <c r="H130" s="13"/>
-      <c r="I130" s="6" t="s">
+      <c r="I130" s="13"/>
+      <c r="J130" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5545,11 +5680,12 @@
       <c r="H131" s="13">
         <v>500</v>
       </c>
-      <c r="I131" s="6" t="s">
+      <c r="I131" s="13"/>
+      <c r="J131" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="46" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="46" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5574,11 +5710,12 @@
       <c r="H132" s="13">
         <v>700</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="I132" s="13"/>
+      <c r="J132" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5603,11 +5740,12 @@
       <c r="H133" s="13">
         <v>100</v>
       </c>
-      <c r="I133" s="6" t="s">
+      <c r="I133" s="13"/>
+      <c r="J133" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5632,11 +5770,12 @@
       <c r="H134" s="13">
         <v>250</v>
       </c>
-      <c r="I134" s="6" t="s">
+      <c r="I134" s="13"/>
+      <c r="J134" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5661,11 +5800,12 @@
       <c r="H135" s="13">
         <v>1200</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I135" s="13"/>
+      <c r="J135" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5690,11 +5830,12 @@
       <c r="H136" s="13">
         <v>500</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I136" s="13"/>
+      <c r="J136" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5719,11 +5860,12 @@
       <c r="H137" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="I137" s="6" t="s">
+      <c r="I137" s="13"/>
+      <c r="J137" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5748,11 +5890,12 @@
       <c r="H138" s="13">
         <v>500</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="I138" s="13"/>
+      <c r="J138" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5777,11 +5920,12 @@
       <c r="H139" s="13">
         <v>500</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="I139" s="13"/>
+      <c r="J139" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5804,11 +5948,12 @@
         <v>1000</v>
       </c>
       <c r="H140" s="13"/>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="13"/>
+      <c r="J140" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5833,11 +5978,12 @@
       <c r="H141" s="13">
         <v>500</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="13"/>
+      <c r="J141" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5862,11 +6008,12 @@
       <c r="H142" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="I142" s="13"/>
+      <c r="J142" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5891,11 +6038,12 @@
       <c r="H143" s="13">
         <v>500</v>
       </c>
-      <c r="I143" s="6" t="s">
+      <c r="I143" s="13"/>
+      <c r="J143" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5920,11 +6068,12 @@
       <c r="H144" s="13">
         <v>500</v>
       </c>
-      <c r="I144" s="6" t="s">
+      <c r="I144" s="13"/>
+      <c r="J144" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5949,11 +6098,12 @@
       <c r="H145" s="13">
         <v>300</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="I145" s="13"/>
+      <c r="J145" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5978,11 +6128,12 @@
       <c r="H146" s="13">
         <v>200</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="I146" s="13"/>
+      <c r="J146" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6007,11 +6158,12 @@
       <c r="H147" s="13">
         <v>200</v>
       </c>
-      <c r="I147" s="6" t="s">
+      <c r="I147" s="13"/>
+      <c r="J147" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6036,11 +6188,12 @@
       <c r="H148" s="13">
         <v>300</v>
       </c>
-      <c r="I148" s="6" t="s">
+      <c r="I148" s="13"/>
+      <c r="J148" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6065,11 +6218,12 @@
       <c r="H149" s="13">
         <v>800</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I149" s="13"/>
+      <c r="J149" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6094,11 +6248,12 @@
       <c r="H150" s="13">
         <v>700</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="13"/>
+      <c r="J150" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6121,11 +6276,12 @@
         <v>500</v>
       </c>
       <c r="H151" s="13"/>
-      <c r="I151" s="6" t="s">
+      <c r="I151" s="13"/>
+      <c r="J151" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6148,11 +6304,12 @@
         <v>200</v>
       </c>
       <c r="H152" s="13"/>
-      <c r="I152" s="6" t="s">
+      <c r="I152" s="13"/>
+      <c r="J152" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6175,11 +6332,12 @@
         <v>300</v>
       </c>
       <c r="H153" s="13"/>
-      <c r="I153" s="6" t="s">
+      <c r="I153" s="13"/>
+      <c r="J153" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6204,11 +6362,12 @@
       <c r="H154" s="13">
         <v>705</v>
       </c>
-      <c r="I154" s="6" t="s">
+      <c r="I154" s="13"/>
+      <c r="J154" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6233,11 +6392,12 @@
       <c r="H155" s="13">
         <v>300</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="13"/>
+      <c r="J155" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6262,11 +6422,12 @@
       <c r="H156" s="13">
         <v>500</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I156" s="13"/>
+      <c r="J156" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6291,11 +6452,12 @@
       <c r="H157" s="13">
         <v>300</v>
       </c>
-      <c r="I157" s="6" t="s">
+      <c r="I157" s="13"/>
+      <c r="J157" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6318,11 +6480,12 @@
         <v>18</v>
       </c>
       <c r="H158" s="13"/>
-      <c r="I158" s="6" t="s">
+      <c r="I158" s="13"/>
+      <c r="J158" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6347,11 +6510,12 @@
       <c r="H159" s="13">
         <v>350</v>
       </c>
-      <c r="I159" s="6" t="s">
+      <c r="I159" s="13"/>
+      <c r="J159" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6376,11 +6540,12 @@
       <c r="H160" s="13">
         <v>400</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="I160" s="13"/>
+      <c r="J160" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6403,11 +6568,12 @@
         <v>18</v>
       </c>
       <c r="H161" s="13"/>
-      <c r="I161" s="6" t="s">
+      <c r="I161" s="13"/>
+      <c r="J161" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6432,11 +6598,12 @@
       <c r="H162" s="13">
         <v>200</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I162" s="13"/>
+      <c r="J162" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6461,11 +6628,12 @@
       <c r="H163" s="13">
         <v>400</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="I163" s="13"/>
+      <c r="J163" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6490,11 +6658,12 @@
       <c r="H164" s="13">
         <v>500</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="I164" s="13"/>
+      <c r="J164" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6519,11 +6688,12 @@
       <c r="H165" s="13">
         <v>200</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="I165" s="13"/>
+      <c r="J165" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6548,11 +6718,12 @@
       <c r="H166" s="13">
         <v>200</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="I166" s="13"/>
+      <c r="J166" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6577,11 +6748,12 @@
       <c r="H167" s="13">
         <v>300</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="I167" s="13"/>
+      <c r="J167" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6606,11 +6778,12 @@
       <c r="H168" s="13">
         <v>300</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I168" s="13"/>
+      <c r="J168" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6635,11 +6808,12 @@
       <c r="H169" s="13">
         <v>500</v>
       </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="13"/>
+      <c r="J169" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6664,11 +6838,12 @@
       <c r="H170" s="13">
         <v>301</v>
       </c>
-      <c r="I170" s="6" t="s">
+      <c r="I170" s="13"/>
+      <c r="J170" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6693,11 +6868,12 @@
       <c r="H171" s="13">
         <v>200</v>
       </c>
-      <c r="I171" s="6" t="s">
+      <c r="I171" s="13"/>
+      <c r="J171" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6722,11 +6898,12 @@
       <c r="H172" s="13">
         <v>200</v>
       </c>
-      <c r="I172" s="6" t="s">
+      <c r="I172" s="13"/>
+      <c r="J172" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6749,11 +6926,12 @@
       <c r="H173" s="13">
         <v>250</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="I173" s="13"/>
+      <c r="J173" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6778,11 +6956,12 @@
       <c r="H174" s="13">
         <v>500</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="I174" s="13"/>
+      <c r="J174" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6807,11 +6986,12 @@
       <c r="H175" s="13">
         <v>100</v>
       </c>
-      <c r="I175" s="6" t="s">
+      <c r="I175" s="13"/>
+      <c r="J175" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6836,11 +7016,12 @@
       <c r="H176" s="13">
         <v>200</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="I176" s="13"/>
+      <c r="J176" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6865,11 +7046,12 @@
       <c r="H177" s="13">
         <v>481</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I177" s="13"/>
+      <c r="J177" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6894,11 +7076,12 @@
       <c r="H178" s="13">
         <v>1500</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="I178" s="13"/>
+      <c r="J178" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6921,11 +7104,12 @@
         <v>18</v>
       </c>
       <c r="H179" s="13"/>
-      <c r="I179" s="6" t="s">
+      <c r="I179" s="13"/>
+      <c r="J179" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6950,11 +7134,12 @@
       <c r="H180" s="13">
         <v>700</v>
       </c>
-      <c r="I180" s="6" t="s">
+      <c r="I180" s="13"/>
+      <c r="J180" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6977,11 +7162,12 @@
         <v>100</v>
       </c>
       <c r="H181" s="13"/>
-      <c r="I181" s="6" t="s">
+      <c r="I181" s="13"/>
+      <c r="J181" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7004,11 +7190,12 @@
         <v>120</v>
       </c>
       <c r="H182" s="13"/>
-      <c r="I182" s="6" t="s">
+      <c r="I182" s="13"/>
+      <c r="J182" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7033,11 +7220,12 @@
       <c r="H183" s="13">
         <v>300</v>
       </c>
-      <c r="I183" s="6" t="s">
+      <c r="I183" s="13"/>
+      <c r="J183" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7060,11 +7248,12 @@
       <c r="H184" s="13">
         <v>120</v>
       </c>
-      <c r="I184" s="6" t="s">
+      <c r="I184" s="13"/>
+      <c r="J184" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7089,11 +7278,12 @@
       <c r="H185" s="13">
         <v>100</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I185" s="13"/>
+      <c r="J185" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7114,11 +7304,12 @@
         <v>200</v>
       </c>
       <c r="H186" s="13"/>
-      <c r="I186" s="6" t="s">
+      <c r="I186" s="13"/>
+      <c r="J186" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7141,11 +7332,12 @@
         <v>200</v>
       </c>
       <c r="H187" s="13"/>
-      <c r="I187" s="6" t="s">
+      <c r="I187" s="13"/>
+      <c r="J187" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7168,11 +7360,12 @@
         <v>18</v>
       </c>
       <c r="H188" s="13"/>
-      <c r="I188" s="6" t="s">
+      <c r="I188" s="13"/>
+      <c r="J188" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7195,11 +7388,12 @@
         <v>300</v>
       </c>
       <c r="H189" s="13"/>
-      <c r="I189" s="6" t="s">
+      <c r="I189" s="13"/>
+      <c r="J189" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7222,11 +7416,12 @@
         <v>50</v>
       </c>
       <c r="H190" s="13"/>
-      <c r="I190" s="6" t="s">
+      <c r="I190" s="13"/>
+      <c r="J190" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7251,11 +7446,12 @@
       <c r="H191" s="13">
         <v>200</v>
       </c>
-      <c r="I191" s="6" t="s">
+      <c r="I191" s="13"/>
+      <c r="J191" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7280,11 +7476,12 @@
       <c r="H192" s="13">
         <v>800</v>
       </c>
-      <c r="I192" s="6" t="s">
+      <c r="I192" s="13"/>
+      <c r="J192" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7309,11 +7506,12 @@
       <c r="H193" s="13">
         <v>606</v>
       </c>
-      <c r="I193" s="6" t="s">
+      <c r="I193" s="13"/>
+      <c r="J193" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7338,11 +7536,12 @@
       <c r="H194" s="13">
         <v>500</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="I194" s="13"/>
+      <c r="J194" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7367,11 +7566,12 @@
       <c r="H195" s="13">
         <v>700</v>
       </c>
-      <c r="I195" s="6" t="s">
+      <c r="I195" s="13"/>
+      <c r="J195" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7396,11 +7596,12 @@
       <c r="H196" s="13">
         <v>300</v>
       </c>
-      <c r="I196" s="6" t="s">
+      <c r="I196" s="13"/>
+      <c r="J196" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7425,11 +7626,12 @@
       <c r="H197" s="13">
         <v>1500</v>
       </c>
-      <c r="I197" s="6" t="s">
+      <c r="I197" s="13"/>
+      <c r="J197" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7454,11 +7656,12 @@
       <c r="H198" s="13">
         <v>300</v>
       </c>
-      <c r="I198" s="6" t="s">
+      <c r="I198" s="13"/>
+      <c r="J198" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7483,11 +7686,12 @@
       <c r="H199" s="13">
         <v>500</v>
       </c>
-      <c r="I199" s="6" t="s">
+      <c r="I199" s="13"/>
+      <c r="J199" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7512,11 +7716,12 @@
       <c r="H200" s="13">
         <v>300</v>
       </c>
-      <c r="I200" s="6" t="s">
+      <c r="I200" s="13"/>
+      <c r="J200" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7541,11 +7746,12 @@
       <c r="H201" s="13">
         <v>400</v>
       </c>
-      <c r="I201" s="6" t="s">
+      <c r="I201" s="13"/>
+      <c r="J201" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7570,11 +7776,12 @@
       <c r="H202" s="13">
         <v>500</v>
       </c>
-      <c r="I202" s="6" t="s">
+      <c r="I202" s="13"/>
+      <c r="J202" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7599,11 +7806,12 @@
       <c r="H203" s="13">
         <v>200</v>
       </c>
-      <c r="I203" s="6" t="s">
+      <c r="I203" s="13"/>
+      <c r="J203" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7628,11 +7836,12 @@
       <c r="H204" s="13">
         <v>200</v>
       </c>
-      <c r="I204" s="6" t="s">
+      <c r="I204" s="13"/>
+      <c r="J204" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7657,7 +7866,8 @@
       <c r="H205" s="13">
         <v>300</v>
       </c>
-      <c r="I205" s="6" t="s">
+      <c r="I205" s="13"/>
+      <c r="J205" s="6" t="s">
         <v>421</v>
       </c>
     </row>
